--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4157C-85AD-4673-B70D-42873269BEAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE030E3D-8718-3343-AB0D-DB4602AB9793}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,26 @@
   </si>
   <si>
     <t>協助連線Mongo DB並匯入資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴彥良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安裝mongodb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成mongodb安裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將資料匯入mongo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,13 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -494,23 +515,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -530,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>43793</v>
       </c>
@@ -548,6 +569,26 @@
       </c>
       <c r="F2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>43793</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE030E3D-8718-3343-AB0D-DB4602AB9793}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F48EF-777F-8543-9CBF-1D9E36873D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +86,22 @@
   </si>
   <si>
     <t>將資料匯入mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐楷程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Word2Vec分析川普Twitter發言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解Word2Vec用途且用其他資料庫試做一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓出發文中的關鍵字並想如何分析之</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -591,6 +615,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>43793</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE030E3D-8718-3343-AB0D-DB4602AB9793}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="465" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,14 +77,34 @@
   </si>
   <si>
     <t>將資料匯入mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓美股資訊、標記川普推文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已抓取股市資訊、正在標記川普推文的「情緒」calm(0)、good(1)、bad(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標完一半推文(全部8929則)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,7 +197,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -270,23 +289,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -322,23 +324,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,24 +499,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -551,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43793</v>
       </c>
@@ -571,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43793</v>
       </c>
@@ -589,6 +574,26 @@
       </c>
       <c r="F3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43793</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,18 @@
   <si>
     <t>標完一半推文(全部8929則)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐楷程</t>
+  </si>
+  <si>
+    <t>利用Word2Vec分析川普Twitter發言</t>
+  </si>
+  <si>
+    <t>了解Word2Vec用途且用其他資料庫試做一次</t>
+  </si>
+  <si>
+    <t>抓出發文中的關鍵字並想如何分析之</t>
   </si>
 </sst>
 </file>
@@ -160,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -168,6 +180,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -500,17 +516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
@@ -577,22 +593,42 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>43793</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43793</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,22 @@
   </si>
   <si>
     <t>抓出發文中的關鍵字並想如何分析之</t>
+  </si>
+  <si>
+    <t>楊雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將美中貿易戰開始後，S&amp;P500波動超過一個標準差的日子的川普推文標記情緒，並放入楷程的Word2Vec中train，再抓取較近期的川普推文計算文字向量，然後放入KNN模型train &amp; test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -172,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,6 +199,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,19 +541,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="4" max="4" width="52.125" customWidth="1"/>
+    <col min="5" max="5" width="65.375" customWidth="1"/>
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -630,6 +655,23 @@
       </c>
       <c r="F5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>43823</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,22 @@
   </si>
   <si>
     <t>抓出發文中的關鍵字並想如何分析之</t>
+  </si>
+  <si>
+    <t>楊雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將美中貿易戰開始後，S&amp;P500波動超過一個標準差的日子的川普推文標記情緒，並放入楷程的Word2Vec中train，再抓取較近期的川普推文計算文字向量，然後放入KNN模型train &amp; test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -172,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,6 +199,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,19 +541,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="4" max="4" width="52.125" customWidth="1"/>
+    <col min="5" max="5" width="65.375" customWidth="1"/>
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -630,6 +655,23 @@
       </c>
       <c r="F5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>43823</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,62 @@
   </si>
   <si>
     <t>全部已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴彥良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯入資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將資料匯入mongodb並創建欄位，使資料在robo3t裡能清楚呈現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐楷程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 利用Word2Vec分析川普Twitter發言（建立好模型，可隨時更新），並分析波動較大的貼文中較常出現的文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅佳敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協助Mongodb資料匯入、統整書面報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協助將抓取的資料匯入Mongodb，並統整期末書面報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作期末影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成期末影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預計今日晚上完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A8" sqref="A8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -674,6 +730,74 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43823</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43824</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43824</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43824</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
